--- a/Calibration/Benchmarks/Cancer.xlsx
+++ b/Calibration/Benchmarks/Cancer.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/misselwb/Documents/CRC Screening/Calibration_July_2019/Jan_Sept_2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janek\Documents\GitHub\CMOSTv3\Calibration\Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7FF50E-4DFA-F44C-9CC7-DC96FB6337B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="1120" windowWidth="27640" windowHeight="16020" xr2:uid="{C68E4CF7-2E7D-1C4E-8076-D32D66E885D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22860" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -87,7 +86,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,16 +397,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F2065D-8515-D141-85EC-32698C603203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,12 +426,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.5457743871979961E-3</v>
       </c>
       <c r="C2">
         <v>1.5</v>
@@ -444,10 +443,10 @@
         <v>1.5</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.0915487743959922E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5.5</v>
       </c>
@@ -467,324 +466,324 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5.6842714722507848E-2</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>7.0628212855079781E-2</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.3057216589935915E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>0.21532379337152002</v>
       </c>
       <c r="C5">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.24653227212093698</v>
       </c>
       <c r="E5">
         <v>17</v>
       </c>
       <c r="F5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.18411531462210309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>22</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.55945641442864824</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
       <c r="D6">
-        <v>0.9</v>
+        <v>0.59629570424351896</v>
       </c>
       <c r="E6">
         <v>22</v>
       </c>
       <c r="F6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.52261712461377752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>27</v>
       </c>
       <c r="B7">
-        <v>2.1</v>
+        <v>1.545696235481834</v>
       </c>
       <c r="C7">
         <v>27</v>
       </c>
       <c r="D7">
-        <v>2.1</v>
+        <v>1.5302004279953001</v>
       </c>
       <c r="E7">
         <v>27</v>
       </c>
       <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.5611920429683681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>32</v>
       </c>
       <c r="B8">
-        <v>4.5</v>
+        <v>3.2905083257806615</v>
       </c>
       <c r="C8">
         <v>32</v>
       </c>
       <c r="D8">
-        <v>4.5</v>
+        <v>3.4927844578420175</v>
       </c>
       <c r="E8">
         <v>32</v>
       </c>
       <c r="F8">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.0882321937193051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>37</v>
       </c>
       <c r="B9">
-        <v>8.4</v>
+        <v>6.6785202846517846</v>
       </c>
       <c r="C9">
         <v>37</v>
       </c>
       <c r="D9">
-        <v>8.6999999999999993</v>
+        <v>7.0064785488840773</v>
       </c>
       <c r="E9">
         <v>37</v>
       </c>
       <c r="F9">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.3505620204194919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>42</v>
       </c>
       <c r="B10">
-        <v>16.600000000000001</v>
+        <v>13.073024136921678</v>
       </c>
       <c r="C10">
         <v>42</v>
       </c>
       <c r="D10">
-        <v>17.100000000000001</v>
+        <v>13.798954933126824</v>
       </c>
       <c r="E10">
         <v>42</v>
       </c>
       <c r="F10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.347093340716533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>47</v>
       </c>
       <c r="B11">
-        <v>29.3</v>
+        <v>25.686944941641482</v>
       </c>
       <c r="C11">
         <v>47</v>
       </c>
       <c r="D11">
-        <v>32.200000000000003</v>
+        <v>27.9797580469709</v>
       </c>
       <c r="E11">
         <v>47</v>
       </c>
       <c r="F11">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.394131836312059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>52</v>
       </c>
       <c r="B12">
-        <v>57.2</v>
+        <v>49.724618054837642</v>
       </c>
       <c r="C12">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>56.430287894978541</v>
       </c>
       <c r="E12">
         <v>52</v>
       </c>
       <c r="F12">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43.018948214696742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>57</v>
       </c>
       <c r="B13">
-        <v>76.099999999999994</v>
+        <v>86.46991542494608</v>
       </c>
       <c r="C13">
         <v>57</v>
       </c>
       <c r="D13">
-        <v>90</v>
+        <v>101.92029908048684</v>
       </c>
       <c r="E13">
         <v>57</v>
       </c>
       <c r="F13">
-        <v>63.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71.019531769405333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>62</v>
       </c>
       <c r="B14">
-        <v>107.3</v>
+        <v>138.22235648787475</v>
       </c>
       <c r="C14">
         <v>62</v>
       </c>
       <c r="D14">
-        <v>129.5</v>
+        <v>166.12927511329426</v>
       </c>
       <c r="E14">
         <v>62</v>
       </c>
       <c r="F14">
-        <v>86.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>110.31543786245528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>67</v>
       </c>
       <c r="B15">
-        <v>160.9</v>
+        <v>207.54803710623284</v>
       </c>
       <c r="C15">
         <v>67</v>
       </c>
       <c r="D15">
-        <v>194.7</v>
+        <v>252.36686688783649</v>
       </c>
       <c r="E15">
         <v>67</v>
       </c>
       <c r="F15">
-        <v>131.30000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>162.72920732462916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>72</v>
       </c>
       <c r="B16">
-        <v>209.2</v>
+        <v>281.55633142368782</v>
       </c>
       <c r="C16">
         <v>72</v>
       </c>
       <c r="D16">
-        <v>252.8</v>
+        <v>336.39209167934627</v>
       </c>
       <c r="E16">
         <v>72</v>
       </c>
       <c r="F16">
-        <v>173.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226.72057116802932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>77</v>
       </c>
       <c r="B17">
-        <v>262.5</v>
+        <v>366.47050696373469</v>
       </c>
       <c r="C17">
         <v>77</v>
       </c>
       <c r="D17">
-        <v>308.3</v>
+        <v>433.63268051636385</v>
       </c>
       <c r="E17">
         <v>77</v>
       </c>
       <c r="F17">
-        <v>228.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>299.30833341110554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>82</v>
       </c>
       <c r="B18">
-        <v>313.39999999999998</v>
+        <v>455.84488650748131</v>
       </c>
       <c r="C18">
         <v>82</v>
       </c>
       <c r="D18">
-        <v>362.7</v>
+        <v>530.92384409349222</v>
       </c>
       <c r="E18">
         <v>82</v>
       </c>
       <c r="F18">
-        <v>282.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>380.7659289214705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>87</v>
       </c>
       <c r="B19">
-        <v>343.4</v>
+        <v>454.04577604613524</v>
       </c>
       <c r="C19">
         <v>87</v>
       </c>
       <c r="D19">
-        <v>395.4</v>
+        <v>495.11806522927736</v>
       </c>
       <c r="E19">
         <v>87</v>
       </c>
       <c r="F19">
-        <v>319.5</v>
+        <v>412.97348686299307</v>
       </c>
     </row>
   </sheetData>
